--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,27 +26,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="TimesNewRoman"/>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
+      <b val="1"/>
+      <color rgb="FFC60505"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="ArialTIME"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FFC60505"/>
+      <sz val="25"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="23"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
+      <name val="TimesNewRoman"/>
       <b val="1"/>
-      <color rgb="FFC60505"/>
-      <sz val="11"/>
+      <sz val="16"/>
     </font>
     <font>
+      <name val="TimesNewRoman"/>
       <b val="1"/>
-      <sz val="11"/>
+      <sz val="14"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <name val="TimesNewRoman"/>
+      <sz val="14"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -60,16 +100,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
+        <fgColor rgb="00B7C4D3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,6 +122,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -95,33 +141,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -198,6 +291,61 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>2286000</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1714500" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,138 +637,194 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.32" customWidth="1" min="1" max="1"/>
-    <col width="11.79" customWidth="1" min="2" max="2"/>
-    <col width="9.85" customWidth="1" min="3" max="3"/>
-    <col width="5.52" customWidth="1" min="4" max="4"/>
-    <col width="7.8" customWidth="1" min="5" max="5"/>
-    <col width="4.44" customWidth="1" min="6" max="6"/>
-    <col width="5.99" customWidth="1" min="7" max="7"/>
-    <col width="5.97" customWidth="1" min="8" max="8"/>
-    <col width="5.48" customWidth="1" min="9" max="9"/>
-    <col width="3.51" customWidth="1" min="10" max="10"/>
-    <col width="3.28" customWidth="1" min="11" max="11"/>
-    <col width="7.64" customWidth="1" min="12" max="12"/>
-    <col width="3.09" customWidth="1" min="13" max="13"/>
-    <col width="6.28" customWidth="1" min="14" max="14"/>
-    <col width="16.96" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="28.8" customWidth="1" min="2" max="2"/>
+    <col width="28.8" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="28.8" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="14.4" customWidth="1" min="7" max="7"/>
+    <col width="14.4" customWidth="1" min="8" max="8"/>
+    <col width="14.4" customWidth="1" min="9" max="9"/>
+    <col width="9.119999999999999" customWidth="1" min="10" max="10"/>
+    <col width="9.119999999999999" customWidth="1" min="11" max="11"/>
+    <col width="28.8" customWidth="1" min="12" max="12"/>
+    <col width="9.119999999999999" customWidth="1" min="13" max="13"/>
+    <col width="19.2" customWidth="1" min="14" max="14"/>
+    <col width="60" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="B1" s="1" t="inlineStr">
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>INSTITUTO MUNICIPAL DE TRÁNSITO Y TRANSPORTE PÚBLICO DE PASAJEROS DEL MUNICIPIO CARIRUBANA</t>
         </is>
       </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
     </row>
     <row r="2" ht="25" customHeight="1">
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>REGISTRO DE ORGANIZACIONES DE TRANSPORTE PÚBLICO URBANO DEL MUNICIPIO CARIRUBANA</t>
         </is>
       </c>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
     </row>
     <row r="3" ht="25" customHeight="1">
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>DICIEMBRE</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
     </row>
     <row r="4" ht="25" customHeight="1">
+      <c r="A4" s="1" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>DICIEMBRE</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
           <t>MASIVOS / POR PUESTO / TAXI / MOTO TAXI</t>
         </is>
       </c>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
     </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Nº</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>ORGANIZACIÓN</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>PROPIETARIO - NOMBRE Y APELLIDO</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>CHOFER - NOMBRE Y APELLIDO</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>PLACA</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>MARCA</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>MODELO</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>Nº DE PUESTOS</t>
         </is>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>LITRAJE</t>
         </is>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>SINDICATO</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>GRUPO</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>MODALIDAD</t>
         </is>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>FIRMA</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
-      <c r="A7" s="6" t="n">
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -633,7 +837,7 @@
           <t>ELIANA</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>12496704</t>
         </is>
@@ -643,7 +847,7 @@
           <t>choferrr</t>
         </is>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <v>5454454</v>
       </c>
       <c r="G7" s="7" t="inlineStr">
@@ -664,7 +868,7 @@
       <c r="J7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="9" t="n">
         <v>50</v>
       </c>
       <c r="L7" s="7" t="inlineStr">
@@ -672,7 +876,7 @@
           <t>PUNTO</t>
         </is>
       </c>
-      <c r="M7" s="7" t="inlineStr">
+      <c r="M7" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -688,129 +892,229 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
-      <c r="A8" s="6" t="n">
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>PRUEBAAAAA</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>jodsa</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>45678945</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>45678945</v>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>21321sda</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>dsads</t>
+        </is>
+      </c>
+      <c r="I8" s="10" t="inlineStr">
+        <is>
+          <t>dsad</t>
+        </is>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>saad</t>
+        </is>
+      </c>
+      <c r="M8" s="12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N8" s="10" t="inlineStr">
+        <is>
+          <t>Masivo</t>
+        </is>
+      </c>
+      <c r="O8" s="10" t="inlineStr"/>
+    </row>
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>PRUEBAAAAA</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>yope</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>jeferson avila</t>
         </is>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>31662565</v>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>iao25b</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>FORD</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr">
         <is>
           <t>FIETSAAA</t>
         </is>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J9" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K9" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="L8" s="7" t="inlineStr">
+      <c r="L9" s="7" t="inlineStr">
         <is>
           <t>IDK</t>
         </is>
       </c>
-      <c r="M8" s="7" t="inlineStr">
+      <c r="M9" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="N8" s="7" t="inlineStr">
+      <c r="N9" s="7" t="inlineStr">
         <is>
           <t>POR PUESTO</t>
         </is>
       </c>
-      <c r="O8" s="7" t="inlineStr">
+      <c r="O9" s="7" t="inlineStr">
         <is>
           <t>INACTIVO - NO FIRMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>RESUMEN DE LITRAJE POR SINDICATO</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>Sindicato</t>
-        </is>
-      </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Total litros</t>
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>RESUMEN DE LITRAJE POR SINDICATO</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>PUNTO</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="n">
+      <c r="A12" s="14" t="inlineStr">
+        <is>
+          <t>N°</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>SINDICATOS</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>LITROS</t>
+        </is>
+      </c>
+      <c r="D12" s="16" t="inlineStr">
+        <is>
+          <t>DIA ANTERIOR</t>
+        </is>
+      </c>
+      <c r="E12" s="17" t="n"/>
+      <c r="F12" s="18" t="inlineStr">
+        <is>
+          <t>DIFERENCIA</t>
+        </is>
+      </c>
+      <c r="G12" s="17" t="n"/>
+    </row>
+    <row r="13" ht="28" customHeight="1">
+      <c r="A13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>saad</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="n">
         <v>50</v>
       </c>
+      <c r="D13" s="21" t="inlineStr"/>
+      <c r="E13" s="17" t="n"/>
+      <c r="F13" s="22" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G13" s="17" t="n"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>IDK</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="25" customHeight="1">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>TOTAL GENERAL DE LITRAJE: 90.0</t>
-        </is>
-      </c>
+    <row r="14" ht="32" customHeight="1">
+      <c r="A14" s="23" t="inlineStr">
+        <is>
+          <t>TOTAL LITRAJE</t>
+        </is>
+      </c>
+      <c r="C14" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="n"/>
+      <c r="F14" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G14" s="17" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
     <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>